--- a/biology/Médecine/Hiatus_saphène/Hiatus_saphène.xlsx
+++ b/biology/Médecine/Hiatus_saphène/Hiatus_saphène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hiatus_saph%C3%A8ne</t>
+          <t>Hiatus_saphène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hiatus saphène est un orifice aponévrotique situé dans le membre inférieur au niveau de la cuisse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hiatus_saph%C3%A8ne</t>
+          <t>Hiatus_saphène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hiatus saphène est l'ouverture ovale située dans la partie médiane supérieure du fascia lata de la cuisse dans le fascia cribriformis. Il se trouve 3-4 cm en dessous et latéralement du tubercule pubien et mesure environ 3 cm de long et 1,5 cm de large. C'est l'orifice le plus important du fascia criblé.
 Il donne passage à la veine saphène interne.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hiatus_saph%C3%A8ne</t>
+          <t>Hiatus_saphène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La hernie crurale qui est une saillie d'un organe intra-abdominal (généralement l'intestin grêle ) traverse séquentiellement l'anneau fémoral, le canal fémoral et le hiatus saphène.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hiatus_saph%C3%A8ne</t>
+          <t>Hiatus_saphène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			La grande veine saphène et ses affluents à la fosse ovale.
